--- a/data/trans_camb/P36BPD07_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Edad-trans_camb.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>-2.051292361959101</v>
+        <v>2.051292361959129</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-11.53000822615995</v>
+        <v>11.53000822615993</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-6.629105099706322</v>
+        <v>6.629105099706339</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-11.96970036381814</v>
+        <v>-6.676300277222351</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-19.66592600469635</v>
+        <v>3.391821126082878</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-13.19107039097965</v>
+        <v>1.102024912375492</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.676300277222361</v>
+        <v>11.96970036381815</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.391821126082894</v>
+        <v>19.66592600469631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.102024912375479</v>
+        <v>13.19107039097966</v>
       </c>
     </row>
     <row r="7">
@@ -615,13 +615,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>-0.03077309137965925</v>
+        <v>0.0615239524120076</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1559955607021881</v>
+        <v>0.441972957945803</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.09444599152547552</v>
+        <v>0.2223739039464624</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1721518930942548</v>
+        <v>-0.1865986713942346</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.25937618218854</v>
+        <v>0.1220286748582255</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1830219997389007</v>
+        <v>0.03873129016624664</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.1054191010196149</v>
+        <v>0.4008505116773959</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.04617865195795002</v>
+        <v>0.836595698865309</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01603396499278872</v>
+        <v>0.4719209947944953</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>-11.62031239839526</v>
+        <v>11.62031239839524</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-3.374899417400556</v>
+        <v>3.374899417400568</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-7.358473935646471</v>
+        <v>7.358473935646471</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-17.98761660351918</v>
+        <v>5.085331042411037</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.805319049381771</v>
+        <v>-2.100236920842571</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-11.59846147532459</v>
+        <v>3.126862969375924</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-5.085331042411036</v>
+        <v>17.98761660351916</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.10023692084258</v>
+        <v>8.805319049381763</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-3.126862969375933</v>
+        <v>11.5984614753246</v>
       </c>
     </row>
     <row r="13">
@@ -721,13 +721,13 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>-0.1531768387652093</v>
+        <v>0.4814130062886391</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.04348895204815531</v>
+        <v>0.1506893980724666</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.09592272622974264</v>
+        <v>0.3159841058202464</v>
       </c>
     </row>
     <row r="14">
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2326688842827877</v>
+        <v>0.2038763241756061</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1108132043767447</v>
+        <v>-0.08498184869178307</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.1493795803525331</v>
+        <v>0.127307863186071</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.0711309012725717</v>
+        <v>0.8275294333776456</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02720411384448485</v>
+        <v>0.4387984775246407</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.04111275714410691</v>
+        <v>0.5269002525829261</v>
       </c>
     </row>
     <row r="16">
@@ -776,13 +776,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>-13.4183665608332</v>
+        <v>13.41836656083319</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-9.267302044727121</v>
+        <v>9.267302044727128</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-11.3469208536625</v>
+        <v>11.34692085366249</v>
       </c>
     </row>
     <row r="17">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-18.43883502165649</v>
+        <v>8.734734910132259</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.54251960561974</v>
+        <v>5.110048655493416</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.33423279772714</v>
+        <v>8.087258014673839</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-8.734734910132271</v>
+        <v>18.43883502165648</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-5.110048655493419</v>
+        <v>13.54251960561973</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-8.087258014673838</v>
+        <v>14.33423279772714</v>
       </c>
     </row>
     <row r="19">
@@ -827,13 +827,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>-0.1617893351043069</v>
+        <v>0.7864140387464982</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>-0.1136193584508018</v>
+        <v>0.50268687190774</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.1379477531445071</v>
+        <v>0.6394506952702058</v>
       </c>
     </row>
     <row r="20">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2188216039200959</v>
+        <v>0.4457466728819072</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1626297699187</v>
+        <v>0.2351454270772818</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1723269313855974</v>
+        <v>0.4083745381034938</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.1077174052622874</v>
+        <v>1.235633104555729</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.0645509387359872</v>
+        <v>0.8338564735134458</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.09989874692192613</v>
+        <v>0.8729110820118691</v>
       </c>
     </row>
     <row r="22">
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>-14.5880446006855</v>
+        <v>14.58804460068551</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-13.50399082043681</v>
+        <v>13.50399082043679</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-13.98686537274868</v>
+        <v>13.98686537274865</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-19.11413949621829</v>
+        <v>9.901401751056095</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.99683350242992</v>
+        <v>9.825678592459127</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-16.80962136002755</v>
+        <v>11.17258701091456</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-9.901401751056099</v>
+        <v>19.11413949621829</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-9.82567859245912</v>
+        <v>16.9968335024299</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-11.17258701091456</v>
+        <v>16.80962136002755</v>
       </c>
     </row>
     <row r="25">
@@ -933,13 +933,13 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>-0.1705505871694605</v>
+        <v>1.00850641911707</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.1513207017686299</v>
+        <v>1.255119020802033</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.1600557436626294</v>
+        <v>1.108965257467433</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2182336686666138</v>
+        <v>0.6028271800987574</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.187584403648015</v>
+        <v>0.7732132641576025</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1905338235848937</v>
+        <v>0.7783888323549523</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.1178419377167003</v>
+        <v>1.548392386166304</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1121957323916263</v>
+        <v>1.933397733185468</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.1298020191360874</v>
+        <v>1.515567317787677</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>-21.15149770608622</v>
+        <v>21.15149770608622</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>-14.46258569042017</v>
+        <v>14.46258569042016</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-17.78517689884103</v>
+        <v>17.78517689884101</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-25.25506396240206</v>
+        <v>17.33881656936665</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-17.79106967701678</v>
+        <v>10.81231619038531</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-20.34936849797286</v>
+        <v>15.1611342793469</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-17.33881656936665</v>
+        <v>25.25506396240206</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-10.81231619038532</v>
+        <v>17.79106967701676</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-15.16113427934692</v>
+        <v>20.34936849797285</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>-0.2204982820835353</v>
+        <v>5.191707167812576</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>-0.1531620215475213</v>
+        <v>2.59498141578438</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.1869031234511003</v>
+        <v>3.672494682675164</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.2605674217030807</v>
+        <v>2.79293007076196</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1857415419582842</v>
+        <v>1.364011200159689</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.2123371308095952</v>
+        <v>2.394229515737783</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.1821950008920563</v>
+        <v>9.752263903020602</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.1168175515985596</v>
+        <v>4.825992072114565</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1598370494289254</v>
+        <v>5.680561739876484</v>
       </c>
     </row>
     <row r="34">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C34" s="5" t="n">
-        <v>-16.90079733168912</v>
+        <v>16.90079733168912</v>
       </c>
       <c r="D34" s="5" t="n">
-        <v>-14.78456184403773</v>
+        <v>14.78456184403774</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-15.81390935463716</v>
+        <v>15.81390935463716</v>
       </c>
     </row>
     <row r="35">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-20.93346737454243</v>
+        <v>12.9307320727904</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-17.88975705755995</v>
+        <v>11.86096305172162</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-18.13343275155747</v>
+        <v>13.25652183888558</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-12.93073207279038</v>
+        <v>20.93346737454243</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-11.86096305172162</v>
+        <v>17.88975705755995</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-13.25652183888559</v>
+        <v>18.13343275155747</v>
       </c>
     </row>
     <row r="37">
@@ -1145,13 +1145,13 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>-0.1744899427055661</v>
+        <v>5.37948855419942</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>-0.1512334434573402</v>
+        <v>6.59986919774941</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.1624649777484639</v>
+        <v>5.939147493071283</v>
       </c>
     </row>
     <row r="38">
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2145454794341984</v>
+        <v>2.342998105731866</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1817832562819939</v>
+        <v>2.782013895308408</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1847233424127886</v>
+        <v>3.330002632430535</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.1353943297581729</v>
+        <v>12.39714135023207</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>-0.122624927614439</v>
+        <v>14.40944059671911</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.1366380379283068</v>
+        <v>10.0245959638274</v>
       </c>
     </row>
     <row r="40">
@@ -1200,13 +1200,13 @@
         </is>
       </c>
       <c r="C40" s="5" t="n">
-        <v>-17.67582368334957</v>
+        <v>17.67582368334955</v>
       </c>
       <c r="D40" s="5" t="n">
-        <v>-12.54163307431257</v>
+        <v>12.54163307431257</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>-14.60210450280272</v>
+        <v>14.60210450280269</v>
       </c>
     </row>
     <row r="41">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-22.23545351637832</v>
+        <v>13.06855606397242</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-15.96241175248177</v>
+        <v>9.389380629348828</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.24519816509026</v>
+        <v>11.97203466617629</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-13.06855606397241</v>
+        <v>22.23545351637833</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-9.389380629348834</v>
+        <v>15.96241175248176</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-11.9720346661763</v>
+        <v>17.24519816509026</v>
       </c>
     </row>
     <row r="43">
@@ -1251,13 +1251,13 @@
         </is>
       </c>
       <c r="C43" s="6" t="n">
-        <v>-0.1827288192685764</v>
+        <v>5.409660491881879</v>
       </c>
       <c r="D43" s="6" t="n">
-        <v>-0.1291844263401887</v>
+        <v>4.299741427306268</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>-0.1506209615751002</v>
+        <v>4.781354180505128</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2280785718310342</v>
+        <v>2.223990698320362</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.163863378881089</v>
+        <v>1.830022003012271</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1769993095001569</v>
+        <v>2.705070983365334</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1377267488933284</v>
+        <v>12.41173475846368</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.09785855761605408</v>
+        <v>11.06821402686181</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1242253823608113</v>
+        <v>8.727151347124126</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         </is>
       </c>
       <c r="C46" s="5" t="n">
-        <v>-12.92292958701067</v>
+        <v>12.92292958701066</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-10.43115143085047</v>
+        <v>10.43115143085044</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-11.63597261714442</v>
+        <v>11.6359726171444</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-14.95799306937929</v>
+        <v>10.64775420906514</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-12.07193983542488</v>
+        <v>8.636875622707526</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-12.90954361676808</v>
+        <v>10.22513175991538</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-10.64775420906514</v>
+        <v>14.95799306937927</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-8.636875622707537</v>
+        <v>12.07193983542488</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>-10.22513175991539</v>
+        <v>12.90954361676809</v>
       </c>
     </row>
     <row r="49">
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>-0.1531371977232865</v>
+        <v>0.8277519438900278</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.1202709561879147</v>
+        <v>0.7860955077306844</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.1359583102524528</v>
+        <v>0.8072048310386665</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1760446317118263</v>
+        <v>0.6438235220867711</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.1383888719617317</v>
+        <v>0.6035416549525449</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.1500959170868133</v>
+        <v>0.6743132317232112</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.1267212473651877</v>
+        <v>1.017411985101647</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.100661348200971</v>
+        <v>0.9717394972955287</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>-0.1201298740642782</v>
+        <v>0.9363579655733087</v>
       </c>
     </row>
     <row r="52">

--- a/data/trans_camb/P36BPD07_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Edad-trans_camb.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consume menos de una bebida azucarada por día</t>
+          <t>Población que consume al menos una bebida azucarada por día</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P36BPD07_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P36BPD07_R-Edad-trans_camb.xlsx
@@ -567,10 +567,10 @@
         <v>2.051292361959129</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>11.53000822615993</v>
+        <v>11.53000822615994</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.629105099706339</v>
+        <v>6.629105099706329</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.676300277222351</v>
+        <v>-6.912478212287389</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.391821126082878</v>
+        <v>3.105276463939169</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.102024912375492</v>
+        <v>0.3994293443194744</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.96970036381815</v>
+        <v>10.86316541370444</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.66592600469631</v>
+        <v>19.83872641791521</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13.19107039097966</v>
+        <v>11.98732479971435</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>0.0615239524120076</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.441972957945803</v>
+        <v>0.4419729579458033</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.2223739039464624</v>
+        <v>0.222373903946462</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1865986713942346</v>
+        <v>-0.1973133536337248</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.1220286748582255</v>
+        <v>0.1170377785851802</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.03873129016624664</v>
+        <v>0.01143914209530546</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4008505116773959</v>
+        <v>0.3510043395252944</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.836595698865309</v>
+        <v>0.8643603414099965</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4719209947944953</v>
+        <v>0.4195676394357682</v>
       </c>
     </row>
     <row r="10">
@@ -673,7 +673,7 @@
         <v>11.62031239839524</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.374899417400568</v>
+        <v>3.374899417400562</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7.358473935646471</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.085331042411037</v>
+        <v>5.74179447077678</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.100236920842571</v>
+        <v>-2.017771113447462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.126862969375924</v>
+        <v>3.218215458027172</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.98761660351916</v>
+        <v>18.30484516456994</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.805319049381763</v>
+        <v>9.022831075704737</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.5984614753246</v>
+        <v>11.88022411324534</v>
       </c>
     </row>
     <row r="13">
@@ -724,7 +724,7 @@
         <v>0.4814130062886391</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.1506893980724666</v>
+        <v>0.1506893980724663</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>0.3159841058202464</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2038763241756061</v>
+        <v>0.2167356154766285</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.08498184869178307</v>
+        <v>-0.077739208559421</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.127307863186071</v>
+        <v>0.1235509757587245</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.8275294333776456</v>
+        <v>0.8296262205645034</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4387984775246407</v>
+        <v>0.4456640740159066</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5269002525829261</v>
+        <v>0.5383764526875536</v>
       </c>
     </row>
     <row r="16">
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.734734910132259</v>
+        <v>8.520587897087719</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>5.110048655493416</v>
+        <v>4.636942929923809</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.087258014673839</v>
+        <v>8.13988507363443</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.43883502165648</v>
+        <v>18.46839363391252</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>13.54251960561973</v>
+        <v>13.16877051006624</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.33423279772714</v>
+        <v>14.69560846091396</v>
       </c>
     </row>
     <row r="19">
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.4457466728819072</v>
+        <v>0.430399150933571</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2351454270772818</v>
+        <v>0.2194608948727394</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.4083745381034938</v>
+        <v>0.4199815129832414</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.235633104555729</v>
+        <v>1.23314641240087</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8338564735134458</v>
+        <v>0.8222699002298094</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8729110820118691</v>
+        <v>0.9027348140282222</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>14.58804460068551</v>
+        <v>14.5880446006855</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>13.50399082043679</v>
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.901401751056095</v>
+        <v>9.951852654136029</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>9.825678592459127</v>
+        <v>9.70585515142149</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>11.17258701091456</v>
+        <v>11.35980763417738</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>19.11413949621829</v>
+        <v>19.40390490553915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>16.9968335024299</v>
+        <v>16.83616827346135</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.80962136002755</v>
+        <v>16.78770393130252</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>1.00850641911707</v>
+        <v>1.008506419117069</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>1.255119020802033</v>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.6028271800987574</v>
+        <v>0.5904806769366303</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.7732132641576025</v>
+        <v>0.7612831948115172</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7783888323549523</v>
+        <v>0.7962450623024389</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.548392386166304</v>
+        <v>1.571648869260687</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.933397733185468</v>
+        <v>1.958313759580187</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.515567317787677</v>
+        <v>1.504971117893187</v>
       </c>
     </row>
     <row r="28">
@@ -988,13 +988,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>21.15149770608622</v>
+        <v>21.15149770608623</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>14.46258569042016</v>
+        <v>14.46258569042017</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>17.78517689884101</v>
+        <v>17.78517689884102</v>
       </c>
     </row>
     <row r="29">
@@ -1005,13 +1005,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>17.33881656936665</v>
+        <v>17.45604639128706</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>10.81231619038531</v>
+        <v>10.84355893139293</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15.1611342793469</v>
+        <v>15.13837698493215</v>
       </c>
     </row>
     <row r="30">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>25.25506396240206</v>
+        <v>25.32835688395567</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>17.79106967701676</v>
+        <v>17.84817000373233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>20.34936849797285</v>
+        <v>20.4801445623654</v>
       </c>
     </row>
     <row r="31">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>5.191707167812576</v>
+        <v>5.191707167812577</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>2.59498141578438</v>
+        <v>2.594981415784381</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3.672494682675164</v>
+        <v>3.672494682675165</v>
       </c>
     </row>
     <row r="32">
@@ -1056,13 +1056,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>2.79293007076196</v>
+        <v>2.754795705405679</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>1.364011200159689</v>
+        <v>1.271211015628235</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>2.394229515737783</v>
+        <v>2.405771522142537</v>
       </c>
     </row>
     <row r="33">
@@ -1073,13 +1073,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>9.752263903020602</v>
+        <v>10.0236468242578</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>4.825992072114565</v>
+        <v>4.371510973356711</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>5.680561739876484</v>
+        <v>5.473017078569844</v>
       </c>
     </row>
     <row r="34">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>12.9307320727904</v>
+        <v>13.04007130537167</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>11.86096305172162</v>
+        <v>11.74889015102748</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13.25652183888558</v>
+        <v>13.55777052573362</v>
       </c>
     </row>
     <row r="36">
@@ -1128,13 +1128,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>20.93346737454243</v>
+        <v>20.68474556801882</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>17.88975705755995</v>
+        <v>17.99257407128524</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>18.13343275155747</v>
+        <v>18.5363368973509</v>
       </c>
     </row>
     <row r="37">
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="C37" s="6" t="n">
-        <v>5.37948855419942</v>
+        <v>5.379488554199421</v>
       </c>
       <c r="D37" s="6" t="n">
-        <v>6.59986919774941</v>
+        <v>6.599869197749409</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>5.939147493071283</v>
@@ -1162,13 +1162,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2.342998105731866</v>
+        <v>2.427843717479663</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2.782013895308408</v>
+        <v>2.787516147983986</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>3.330002632430535</v>
+        <v>3.330919575157634</v>
       </c>
     </row>
     <row r="39">
@@ -1179,13 +1179,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>12.39714135023207</v>
+        <v>12.16496943271087</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>14.40944059671911</v>
+        <v>15.19022217113517</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>10.0245959638274</v>
+        <v>10.69265472266705</v>
       </c>
     </row>
     <row r="40">
@@ -1217,13 +1217,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>13.06855606397242</v>
+        <v>13.17607463476449</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>9.389380629348828</v>
+        <v>9.705439658047373</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>11.97203466617629</v>
+        <v>11.98034947049155</v>
       </c>
     </row>
     <row r="42">
@@ -1234,13 +1234,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>22.23545351637833</v>
+        <v>22.04038849725286</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>15.96241175248176</v>
+        <v>15.40661280067992</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.24519816509026</v>
+        <v>17.1157128670854</v>
       </c>
     </row>
     <row r="43">
@@ -1268,13 +1268,13 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>2.223990698320362</v>
+        <v>2.52298045714712</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>1.830022003012271</v>
+        <v>1.77840556986155</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>2.705070983365334</v>
+        <v>2.764818180445892</v>
       </c>
     </row>
     <row r="45">
@@ -1285,13 +1285,13 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>12.41173475846368</v>
+        <v>13.20869036614897</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>11.06821402686181</v>
+        <v>9.84488895389587</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>8.727151347124126</v>
+        <v>8.569605089335429</v>
       </c>
     </row>
     <row r="46">
@@ -1309,10 +1309,10 @@
         <v>12.92292958701066</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>10.43115143085044</v>
+        <v>10.43115143085045</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>11.6359726171444</v>
+        <v>11.63597261714441</v>
       </c>
     </row>
     <row r="47">
@@ -1323,13 +1323,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>10.64775420906514</v>
+        <v>10.6282766955251</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>8.636875622707526</v>
+        <v>8.854588208032057</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>10.22513175991538</v>
+        <v>10.15865355583854</v>
       </c>
     </row>
     <row r="48">
@@ -1340,13 +1340,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>14.95799306937927</v>
+        <v>15.03120776178742</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>12.07193983542488</v>
+        <v>12.372363483615</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>12.90954361676809</v>
+        <v>13.03261466101824</v>
       </c>
     </row>
     <row r="49">
@@ -1357,13 +1357,13 @@
         </is>
       </c>
       <c r="C49" s="6" t="n">
-        <v>0.8277519438900278</v>
+        <v>0.8277519438900282</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>0.7860955077306844</v>
+        <v>0.7860955077306848</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.8072048310386665</v>
+        <v>0.8072048310386668</v>
       </c>
     </row>
     <row r="50">
@@ -1374,13 +1374,13 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.6438235220867711</v>
+        <v>0.6333264023846972</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.6035416549525449</v>
+        <v>0.6227617683482933</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.6743132317232112</v>
+        <v>0.6769080110986196</v>
       </c>
     </row>
     <row r="51">
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.017411985101647</v>
+        <v>1.014881747823795</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.9717394972955287</v>
+        <v>1.005258210078478</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.9363579655733087</v>
+        <v>0.9391918714828468</v>
       </c>
     </row>
     <row r="52">
